--- a/Output_testing/R1_201907/Country/HKD/MN/COLOMBIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/COLOMBIA_201907_HKD_MN.xlsx
@@ -810,136 +810,441 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>2775.10368</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>71.43794827891836</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>2710.946622</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>74.08411024003711</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>4272.835915</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>70.22034913341695</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>2556.399903</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>76.62846165083214</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>23.80545219608481</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>259.543959</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>6.681295568440781</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>190.966258</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>5.218680882533204</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>326.180616</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>5.360495275670562</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>185.344269</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>5.555721619532551</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-4.245253039600727</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>725.046373</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>11.91550774773378</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>162.4975</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>4.870886371296383</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-46.270371195413</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>51.888672</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.335741180883649</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>54.610381</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1.492379618773043</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>59.005372</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.9697020679033365</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>38.607304</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>1.15725959406204</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-10.65801645048647</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>84.13647</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.165878282511868</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>84.889377</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2.319836883854392</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>83.431218</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.37111964351812</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>33.657295</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.008882349021996</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-33.38579310359297</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>28.374728</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.7304348179497122</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>49.543662</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.353917516308492</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>54.221996</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.8910914356585438</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>30.243263</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0.9065462396051148</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>8.528832217240945</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>43.906913</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.130271204851333</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>41.847692</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.143603862303977</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>29.519357</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.4851250073650384</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>28.552895</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.8558772111359044</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>40.7103709340674</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>30.138333</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.7758343191223825</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>27.884452</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.7620197311103764</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>28.037279</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.4607683419855872</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>23.853246</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.7150045437780886</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>107.4995530885172</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>30.787935</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.7925566615747849</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>24.242453</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.6624920409594542</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>21.221809</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.3487620088548825</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>19.655256</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.5891691784473081</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>35.29670583829863</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>14.668395</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.3776003220696765</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>20.525136</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.5609060782590924</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>21.70142</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.3566439993029588</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>18.646962</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.5589454180641643</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>23.83050426949482</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>566.086108</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>14.57243936367746</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>453.826117</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>12.40205314586086</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>463.695641</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>7.620435338590241</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>238.639228</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>7.153245824224312</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-8.773793644583295</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1276,527 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>1.752562</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>14.56694402310547</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>10.524078</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>67.80988141928303</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>6.079878</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>61.25664277643244</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-29.73415516743427</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>7.16427</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>77.02155414908958</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>6.47607</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>53.82779563844969</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>3.754021</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>24.18831548526135</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>3.534022</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>35.60635973584558</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>473.0824802284532</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>3.95245227106652</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>1.550022</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>12.88347214454153</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>3.161628396743114</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>1.35453446788017</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-62.36011837268357</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE AND LEATHER MACHINERY, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>3.038494686557468</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>0.9067410344744712</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>0.9976872130741224</v>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0.2896585044169079</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>1.190540606922615</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.8568569399297435</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>0.5293969777098926</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-4.254815138759815</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.2279167239594123</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.1567818660578494</v>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>1.10146132247819</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.9622154735951167</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.08950903528423199</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>52.43651338366506</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.5382812477322555</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>0.547547</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>4.551100902004798</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.05565085566814951</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>160.6936416184971</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>1.090628</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>11.72511135935877</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>0.581484</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>4.83317844294893</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>1.808991082912043</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.8948015837910069</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>5.130147437393587</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>4.146258081874384</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>0.2791176816821314</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1828,441 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>2775.10368</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>71.60941488507487</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>2710.946622</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>74.3284895023573</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>4272.835915</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>70.39990927609237</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>2556.399903</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>76.85712001629923</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>23.80545219608481</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>259.543959</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>6.697332130288501</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>190.966258</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>5.235895604829601</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>326.041743</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>5.371914481162338</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>185.344269</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>5.572299822946071</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-4.245253039600727</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>725.046373</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>11.94597683963716</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>162.4975</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>4.885421034945402</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-46.270371195413</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>51.888672</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.338947250101866</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>54.610381</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>1.497302491291262</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>59.005372</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.9721816887513409</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>38.607304</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>1.16071284213069</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-10.65801645048647</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>84.13647</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.171076861242047</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>84.889377</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>2.327489267402533</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>83.431218</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.374625727464633</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>33.657295</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.011892841258252</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-33.38579310359297</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>28.374728</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.7321880203060198</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>49.543662</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.358383647612571</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>54.221996</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.8933700416082192</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>30.243263</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>0.9092513621784087</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>8.528832217240945</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>43.906913</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.132984101458828</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>41.847692</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.147376237612945</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>29.519357</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.4863655183652383</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>28.552895</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.8584311379657374</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>40.7103709340674</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>30.138333</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.7776964901511509</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>27.884452</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.7645333851066086</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>28.037279</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.4619465706649983</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>23.853246</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.7171381083409115</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>107.4995530885172</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>30.766735</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.7939119201752325</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>24.242453</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.6646773856404946</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>21.221809</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.3496538266376561</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>19.639695</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.5904594167474086</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>35.18959189180259</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>14.668395</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.3785066449312473</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>20.525136</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.562756324056629</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>21.70142</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.3575559720884757</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>18.646962</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.5606133041593107</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>23.83050426949482</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>556.805665</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>14.36794169627025</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>441.795028</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>12.11309615409006</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>448.314537</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>7.386500057527567</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>228.729534</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>6.876660113028567</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-9.110980554764691</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2294,447 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>17.385684</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>4.664800528299201</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>0.600082</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>0.1838921900142767</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>2.729455</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>0.2608958378823982</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>163.448382</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>39.50591664060305</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>710.3293609999999</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>67.8970614318842</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>80.9875</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>19.5748981102232</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>18.70995540712468</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>98.683746</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>26.47810638197175</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>115.049522</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>35.25636256490898</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>116.329641</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>11.11940631344117</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>59.897847</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>14.47747185734513</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-23.33204042699624</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>27.953958</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>7.500403092938631</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>38.764016</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>11.87904285745692</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>48.414512</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>4.627716769064675</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>24.208885</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.851353075932839</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-4.246603603895083</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>48.025099</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>12.88574594976082</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>57.722452</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>17.68876272121805</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>41.721484</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>3.987961525607518</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>16.759595</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.050839506017672</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-2.600524238032631</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>5.673433</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.738595757361941</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>19.956992</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>1.907595527111573</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>8.221871999999999</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>1.98724873190674</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-17.61736326769373</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>10.673029</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>2.863709665823484</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>6.234249</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.910455073980414</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>5.724244</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.5471537118667611</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>6.729566</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.626554329693129</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>116.0119125573608</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>COFFEE AND COFFEE SUBSTITUTES</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>6.122152</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>1.642651383973619</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>7.546953</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>2.312726785847294</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>7.257145</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.6936765491312575</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>6.387442</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.543862032226706</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>64.26455487180304</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>7.28831</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.955546433399362</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>6.406844</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.963345966450966</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>8.103954999999999</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.774619156529875</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>5.583217</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.349478671427888</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>138.3817229849884</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>26.700075</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>7.163970308308162</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>22.048343</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>6.756606731173321</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>12.605512</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.204901936531881</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>4.478354</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.082430291730335</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-48.05860307940119</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>129.811582</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>34.83010138070811</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>66.27682799999999</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>20.31020935158784</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>73.013419</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>6.979011240948692</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>37.02874</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>8.949946752893302</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-30.53505845871653</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
